--- a/data/case1/18/P1_13.xlsx
+++ b/data/case1/18/P1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.06693157883815104</v>
+        <v>0.094902791605733228</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.00999999885779701</v>
+        <v>-0.0099999995071371472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.00899999886959435</v>
+        <v>-0.008999999512466772</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398422122712219</v>
+        <v>0.28399241863110802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999988993180153</v>
+        <v>-0.0059999995260593408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.02181819241198113</v>
+        <v>-0.0059999995091537528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998687449505</v>
+        <v>-0.01999999942842301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998677225683</v>
+        <v>-0.01999999942467845</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999988376775448</v>
+        <v>-0.0059999995006059237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999988282086747</v>
+        <v>0.030061936047211191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999988460219242</v>
+        <v>-0.0044999995057182218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999988257328773</v>
+        <v>-0.0059999994953967573</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.005999998818682073</v>
+        <v>-0.0059999994875532536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998743509543</v>
+        <v>-0.011999999451324683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999988170647001</v>
+        <v>-0.0059999994837092174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999988179644248</v>
+        <v>-0.0059999994821566816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.020772266268441975</v>
+        <v>-0.0059999994800810086</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999987838540463</v>
+        <v>-0.0089999994626328572</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999988681030985</v>
+        <v>-0.0089999995116145648</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.033166868240421365</v>
+        <v>-0.008999999498438882</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999988466962222</v>
+        <v>-0.0089999994958862573</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999988457769575</v>
+        <v>-0.057853776727209372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999988615874216</v>
+        <v>-0.0089999995083722695</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.04199999843825708</v>
+        <v>-0.041999999313302894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998429516516</v>
+        <v>-0.04199999930976972</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.011571690745832086</v>
+        <v>-0.0059999995075408208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999988531185267</v>
+        <v>-0.0059999995053505728</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999988270282856</v>
+        <v>-0.0059999994955841629</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998735191753</v>
+        <v>-0.010135424125259362</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998628464244</v>
+        <v>-0.021335050439405645</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998675637727</v>
+        <v>-0.014999999430367339</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.02099999859936208</v>
+        <v>-0.020999999395599822</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.015695481513072984</v>
+        <v>-0.0059999994805099988</v>
       </c>
     </row>
   </sheetData>
